--- a/results/palaepaphos/data/combo_PP.xlsx
+++ b/results/palaepaphos/data/combo_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB7F50-1CE3-4F93-BA56-C9412A9B034A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00028BD-DE2A-4199-AFDA-6807AFD6FE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="0" windowWidth="13395" windowHeight="15495" xr2:uid="{DE4B1498-6C51-48D0-AC59-05580BF8DCCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>c550</t>
   </si>
@@ -51,21 +51,9 @@
     <t>soil</t>
   </si>
   <si>
-    <t>5.328983</t>
-  </si>
-  <si>
-    <t>22.05629</t>
-  </si>
-  <si>
     <t>PP-2</t>
   </si>
   <si>
-    <t>3.798409</t>
-  </si>
-  <si>
-    <t>18.86880</t>
-  </si>
-  <si>
     <t>PP-3</t>
   </si>
   <si>
@@ -102,133 +90,34 @@
     <t>PP-11</t>
   </si>
   <si>
-    <t>2.773246</t>
-  </si>
-  <si>
-    <t>24.52314</t>
-  </si>
-  <si>
     <t>PP-12</t>
   </si>
   <si>
-    <t>2.734021</t>
-  </si>
-  <si>
-    <t>21.45383</t>
-  </si>
-  <si>
     <t>PP-13</t>
   </si>
   <si>
-    <t>3.235943</t>
-  </si>
-  <si>
-    <t>21.34319</t>
-  </si>
-  <si>
     <t>PP-14</t>
   </si>
   <si>
     <t>LA59:2</t>
   </si>
   <si>
-    <t>3.202329</t>
-  </si>
-  <si>
-    <t>22.49060</t>
-  </si>
-  <si>
     <t>PP-15</t>
   </si>
   <si>
-    <t>3.508931</t>
-  </si>
-  <si>
-    <t>22.92802</t>
-  </si>
-  <si>
     <t>PP-16</t>
   </si>
   <si>
-    <t>2.215719</t>
-  </si>
-  <si>
-    <t>19.75916</t>
-  </si>
-  <si>
     <t>PP-17</t>
   </si>
   <si>
-    <t>3.921377</t>
-  </si>
-  <si>
-    <t>22.16794</t>
-  </si>
-  <si>
     <t>PP-18</t>
   </si>
   <si>
-    <t>3.234501</t>
-  </si>
-  <si>
-    <t>31.05334</t>
-  </si>
-  <si>
     <t>PP-19</t>
   </si>
   <si>
     <t>LA54:7</t>
-  </si>
-  <si>
-    <t>2.204428</t>
-  </si>
-  <si>
-    <t>33.79251</t>
-  </si>
-  <si>
-    <t>4.377757</t>
-  </si>
-  <si>
-    <t>20.96545</t>
-  </si>
-  <si>
-    <t>4.548741</t>
-  </si>
-  <si>
-    <t>20.208285</t>
-  </si>
-  <si>
-    <t>4.8901315</t>
-  </si>
-  <si>
-    <t>4.755536</t>
-  </si>
-  <si>
-    <t>17.58872</t>
-  </si>
-  <si>
-    <t>4.6705535</t>
-  </si>
-  <si>
-    <t>18.742125</t>
-  </si>
-  <si>
-    <t>4.500187</t>
-  </si>
-  <si>
-    <t>21.750985</t>
-  </si>
-  <si>
-    <t>5.325426</t>
-  </si>
-  <si>
-    <t>18.821245</t>
-  </si>
-  <si>
-    <t>2.2937065</t>
-  </si>
-  <si>
-    <t>14.896565</t>
   </si>
   <si>
     <t>Ti</t>
@@ -615,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C27C0-2484-4149-A5AD-57E045CDD423}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -624,13 +515,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -639,28 +530,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -673,11 +564,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>5.328983</v>
+      </c>
+      <c r="E2">
+        <v>22.056290000000001</v>
       </c>
       <c r="F2">
         <v>136.80000000000001</v>
@@ -706,7 +597,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -714,11 +605,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>3.7984089999999999</v>
+      </c>
+      <c r="E3">
+        <v>18.8688</v>
       </c>
       <c r="F3">
         <v>155.80000000000001</v>
@@ -747,19 +638,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+      <c r="D4">
+        <v>4.3777569999999999</v>
+      </c>
+      <c r="E4">
+        <v>20.965450000000001</v>
       </c>
       <c r="F4">
         <v>143.1</v>
@@ -788,19 +679,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
+      <c r="D5">
+        <v>4.5487409999999997</v>
+      </c>
+      <c r="E5">
+        <v>20.208285</v>
       </c>
       <c r="F5">
         <v>155.4</v>
@@ -829,16 +720,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
+      <c r="D6">
+        <v>4.8901314999999999</v>
       </c>
       <c r="E6">
         <v>6.8034722222222221</v>
@@ -870,19 +761,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
+      <c r="D7">
+        <v>4.7555360000000002</v>
+      </c>
+      <c r="E7">
+        <v>17.588719999999999</v>
       </c>
       <c r="F7">
         <v>181.1</v>
@@ -911,19 +802,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
+      <c r="D8">
+        <v>4.6705534999999996</v>
+      </c>
+      <c r="E8">
+        <v>18.742125000000001</v>
       </c>
       <c r="F8">
         <v>203.2</v>
@@ -952,19 +843,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
+      <c r="D9">
+        <v>4.5001870000000004</v>
+      </c>
+      <c r="E9">
+        <v>21.750985</v>
       </c>
       <c r="F9">
         <v>175.4</v>
@@ -993,19 +884,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>5.3254260000000002</v>
+      </c>
+      <c r="E10">
+        <v>18.821245000000001</v>
       </c>
       <c r="F10">
         <v>191.5</v>
@@ -1034,19 +925,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2.2937064999999999</v>
+      </c>
+      <c r="E11">
+        <v>14.896565000000001</v>
       </c>
       <c r="F11">
         <v>195.4</v>
@@ -1075,19 +966,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2.7732459999999999</v>
+      </c>
+      <c r="E12">
+        <v>24.523140000000001</v>
       </c>
       <c r="F12">
         <v>229.5</v>
@@ -1116,19 +1007,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2.7340209999999998</v>
+      </c>
+      <c r="E13">
+        <v>21.45383</v>
       </c>
       <c r="F13">
         <v>126.3</v>
@@ -1157,19 +1048,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>3.2359429999999998</v>
+      </c>
+      <c r="E14">
+        <v>21.34319</v>
       </c>
       <c r="F14">
         <v>192.8</v>
@@ -1198,19 +1089,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>3.2023290000000002</v>
+      </c>
+      <c r="E15">
+        <v>22.490600000000001</v>
       </c>
       <c r="F15">
         <v>218.8</v>
@@ -1239,19 +1130,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>3.508931</v>
+      </c>
+      <c r="E16">
+        <v>22.92802</v>
       </c>
       <c r="F16">
         <v>182.1</v>
@@ -1280,19 +1171,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2.215719</v>
+      </c>
+      <c r="E17">
+        <v>19.759160000000001</v>
       </c>
       <c r="F17">
         <v>192.2</v>
@@ -1321,19 +1212,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>3.9213770000000001</v>
+      </c>
+      <c r="E18">
+        <v>22.167940000000002</v>
       </c>
       <c r="F18">
         <v>170.9</v>
@@ -1362,19 +1253,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>3.2345009999999998</v>
+      </c>
+      <c r="E19">
+        <v>31.053339999999999</v>
       </c>
       <c r="F19">
         <v>161.80000000000001</v>
@@ -1403,19 +1294,19 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>2.2044280000000001</v>
+      </c>
+      <c r="E20">
+        <v>33.79251</v>
       </c>
       <c r="F20">
         <v>96.9</v>

--- a/results/palaepaphos/data/combo_PP.xlsx
+++ b/results/palaepaphos/data/combo_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00028BD-DE2A-4199-AFDA-6807AFD6FE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839074C-885A-4BAA-A677-F66F2E4B2A11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="0" windowWidth="13395" windowHeight="15495" xr2:uid="{DE4B1498-6C51-48D0-AC59-05580BF8DCCD}"/>
+    <workbookView xWindow="9540" yWindow="3135" windowWidth="13395" windowHeight="15495" xr2:uid="{DE4B1498-6C51-48D0-AC59-05580BF8DCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>c550</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
   </si>
 </sst>
 </file>
@@ -186,8 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,18 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C27C0-2484-4149-A5AD-57E045CDD423}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -523,10 +537,10 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
@@ -553,8 +567,17 @@
       <c r="M1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -564,10 +587,10 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>5.328983</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>22.056290000000001</v>
       </c>
       <c r="F2">
@@ -594,8 +617,17 @@
       <c r="M2">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>1.0226666666666699</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30.690999999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>68.286666666666704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -605,10 +637,10 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3.7984089999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>18.8688</v>
       </c>
       <c r="F3">
@@ -635,8 +667,17 @@
       <c r="M3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>10.657</v>
+      </c>
+      <c r="O3" s="1">
+        <v>75.171333333333294</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14.171666666666701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -646,10 +687,10 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4.3777569999999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>20.965450000000001</v>
       </c>
       <c r="F4">
@@ -676,8 +717,17 @@
       <c r="M4">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>0.71133333333333304</v>
+      </c>
+      <c r="O4" s="1">
+        <v>19.687000000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>79.601333333333301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -687,10 +737,10 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4.5487409999999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>20.208285</v>
       </c>
       <c r="F5">
@@ -717,8 +767,17 @@
       <c r="M5">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>3.5516666666666699</v>
+      </c>
+      <c r="O5" s="1">
+        <v>86.667000000000002</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9.7813333333333308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -728,10 +787,10 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>4.8901314999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>6.8034722222222221</v>
       </c>
       <c r="F6">
@@ -758,8 +817,17 @@
       <c r="M6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>0.56533333333333302</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.1203333333333303</v>
+      </c>
+      <c r="P6" s="1">
+        <v>93.314333333333295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -769,10 +837,10 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>4.7555360000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>17.588719999999999</v>
       </c>
       <c r="F7">
@@ -799,8 +867,17 @@
       <c r="M7">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>4.1779999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>75.645333333333298</v>
+      </c>
+      <c r="P7" s="1">
+        <v>20.175999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -810,10 +887,10 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>4.6705534999999996</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>18.742125000000001</v>
       </c>
       <c r="F8">
@@ -840,8 +917,17 @@
       <c r="M8">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>13.736333333333301</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30.007000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>56.256666666666703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -851,10 +937,10 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>4.5001870000000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>21.750985</v>
       </c>
       <c r="F9">
@@ -881,8 +967,17 @@
       <c r="M9">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>11.911666666666701</v>
+      </c>
+      <c r="O9" s="1">
+        <v>26.9636666666667</v>
+      </c>
+      <c r="P9" s="1">
+        <v>61.125333333333302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -892,10 +987,10 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>5.3254260000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>18.821245000000001</v>
       </c>
       <c r="F10">
@@ -922,8 +1017,17 @@
       <c r="M10">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>1.7313333333333301</v>
+      </c>
+      <c r="O10" s="1">
+        <v>46.274999999999999</v>
+      </c>
+      <c r="P10" s="1">
+        <v>51.993666666666698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -933,10 +1037,10 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2.2937064999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>14.896565000000001</v>
       </c>
       <c r="F11">
@@ -963,8 +1067,17 @@
       <c r="M11">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="O11" s="1">
+        <v>21.271999999999998</v>
+      </c>
+      <c r="P11" s="1">
+        <v>77.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -974,10 +1087,10 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.7732459999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>24.523140000000001</v>
       </c>
       <c r="F12">
@@ -1004,8 +1117,17 @@
       <c r="M12">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>1.3013333333333299</v>
+      </c>
+      <c r="O12" s="1">
+        <v>40.9553333333333</v>
+      </c>
+      <c r="P12" s="1">
+        <v>57.743333333333297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1015,10 +1137,10 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2.7340209999999998</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>21.45383</v>
       </c>
       <c r="F13">
@@ -1045,8 +1167,17 @@
       <c r="M13">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>11.551</v>
+      </c>
+      <c r="O13" s="1">
+        <v>37.296666666666702</v>
+      </c>
+      <c r="P13" s="1">
+        <v>51.152333333333303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1056,10 +1187,10 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>3.2359429999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>21.34319</v>
       </c>
       <c r="F14">
@@ -1086,8 +1217,17 @@
       <c r="M14">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>2.5733333333333301</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45.898000000000003</v>
+      </c>
+      <c r="P14" s="1">
+        <v>51.529000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1097,10 +1237,10 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>3.2023290000000002</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>22.490600000000001</v>
       </c>
       <c r="F15">
@@ -1127,8 +1267,17 @@
       <c r="M15">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>0.94466666666666699</v>
+      </c>
+      <c r="O15" s="1">
+        <v>56.424333333333301</v>
+      </c>
+      <c r="P15" s="1">
+        <v>42.630666666666698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1138,10 +1287,10 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>3.508931</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>22.92802</v>
       </c>
       <c r="F16">
@@ -1168,8 +1317,17 @@
       <c r="M16">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <v>9.7159999999999993</v>
+      </c>
+      <c r="O16" s="1">
+        <v>36.469666666666697</v>
+      </c>
+      <c r="P16" s="1">
+        <v>53.814333333333302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1179,10 +1337,10 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2.215719</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>19.759160000000001</v>
       </c>
       <c r="F17">
@@ -1209,8 +1367,17 @@
       <c r="M17">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O17" s="1">
+        <v>36.936999999999998</v>
+      </c>
+      <c r="P17" s="1">
+        <v>62.137999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1220,10 +1387,10 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>3.9213770000000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>22.167940000000002</v>
       </c>
       <c r="F18">
@@ -1250,8 +1417,17 @@
       <c r="M18">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>1.4526666666666701</v>
+      </c>
+      <c r="O18" s="1">
+        <v>43.768000000000001</v>
+      </c>
+      <c r="P18" s="1">
+        <v>54.779000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1261,10 +1437,10 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>3.2345009999999998</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>31.053339999999999</v>
       </c>
       <c r="F19">
@@ -1291,8 +1467,17 @@
       <c r="M19">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <v>1.1123333333333301</v>
+      </c>
+      <c r="O19" s="1">
+        <v>65.683999999999997</v>
+      </c>
+      <c r="P19" s="1">
+        <v>33.203666666666699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1302,10 +1487,10 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>2.2044280000000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>33.79251</v>
       </c>
       <c r="F20">
@@ -1331,6 +1516,15 @@
       </c>
       <c r="M20">
         <v>6.1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.72366666666667</v>
+      </c>
+      <c r="O20" s="1">
+        <v>39.35</v>
+      </c>
+      <c r="P20" s="1">
+        <v>58.927</v>
       </c>
     </row>
   </sheetData>
